--- a/submission.xlsx
+++ b/submission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>test old</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>001,</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -72,6 +68,14 @@
   </si>
   <si>
     <t>318-2.csv.gz</t>
+  </si>
+  <si>
+    <t>001, 101-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001-2,</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -467,21 +471,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E7"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -489,77 +492,59 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:4">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
         <v>0.9597</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <v>0.96750000000000003</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
         <v>0.96709999999999996</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
         <v>0.96689999999999998</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="D7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="12600" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="16880" yWindow="8280" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -76,6 +76,12 @@
   <si>
     <t>001-2,</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>318-3.csv.gz</t>
+  </si>
+  <si>
+    <t>318-4.csv.gz</t>
   </si>
 </sst>
 </file>
@@ -125,8 +131,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -136,13 +143,14 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -471,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -543,8 +551,24 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7">
+        <v>0.96589999999999998</v>
+      </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16880" yWindow="8280" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="16820" yWindow="8380" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>318-4.csv.gz</t>
+  </si>
+  <si>
+    <t>CV</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -131,8 +135,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,7 +148,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -151,6 +156,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -479,100 +485,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D9"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:5">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:5">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.9597</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.96750000000000003</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:5">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.96709999999999996</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.96689999999999998</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.96589999999999998</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>0.9667</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:5">
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="D9">
+        <v>0.96730000000000005</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -85,6 +85,10 @@
   </si>
   <si>
     <t>CV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>best</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -118,12 +122,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,8 +155,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -485,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -499,7 +510,7 @@
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -513,7 +524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -524,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -534,8 +545,11 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -546,7 +560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -557,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -568,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -579,7 +593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:6">
       <c r="B9" t="s">
         <v>14</v>
       </c>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -499,7 +499,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -508,6 +508,7 @@
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="8380" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="8920" yWindow="10100" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -89,6 +89,24 @@
   </si>
   <si>
     <t>best</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>319-1.csv.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>319-2.csv.gz</t>
+  </si>
+  <si>
+    <t>319-3.csv.gz</t>
+  </si>
+  <si>
+    <t>001, 102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CV std</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -145,8 +163,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -159,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="10">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -168,6 +188,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -496,22 +518,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:7">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -519,95 +542,128 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.9597</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.96750000000000003</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.96709999999999996</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.96689999999999998</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.96589999999999998</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.9667</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
         <v>14</v>
       </c>
+      <c r="C9">
+        <v>0.97313099999999997</v>
+      </c>
       <c r="D9">
+        <v>1.0522699999999999E-3</v>
+      </c>
+      <c r="E9">
         <v>0.96730000000000005</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.97441100000000003</v>
+      </c>
+      <c r="D10">
+        <v>1.0243100000000001E-3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="10100" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="18700" yWindow="13860" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -107,6 +107,17 @@
   </si>
   <si>
     <t>CV std</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001, 102 sample0.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001, 102 001変えた</t>
+    <rPh sb="12" eb="15">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -163,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -179,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -190,6 +203,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -521,7 +536,7 @@
   <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -655,10 +670,16 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
         <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="13860" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="15460" yWindow="13840" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -114,10 +114,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>001, 102 001変えた</t>
-    <rPh sb="12" eb="15">
-      <t>カ</t>
-    </rPh>
+    <t>319-4.csv.gz</t>
+  </si>
+  <si>
+    <t>001, 002, 102,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -174,8 +174,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -192,7 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="14">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -205,6 +207,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -679,6 +683,11 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="13840" windowWidth="13180" windowHeight="11300" tabRatio="500"/>
+    <workbookView xWindow="17060" yWindow="10440" windowWidth="13180" windowHeight="12180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>001, 002, 102,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001, 002, 101, 102,</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -125,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +149,15 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -174,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -188,13 +201,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
+    <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -209,6 +225,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -540,7 +557,7 @@
   <dimension ref="B2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -591,9 +608,6 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
@@ -666,6 +680,9 @@
       <c r="D10">
         <v>1.0243100000000001E-3</v>
       </c>
+      <c r="E10">
+        <v>0.96740000000000004</v>
+      </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -674,6 +691,15 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
+      <c r="C11">
+        <v>0.975298</v>
+      </c>
+      <c r="D11">
+        <v>5.7728100000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>0.96819999999999995</v>
+      </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -682,6 +708,15 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
+      <c r="C12">
+        <v>0.97543800000000003</v>
+      </c>
+      <c r="D12">
+        <v>1.01224E-3</v>
+      </c>
+      <c r="E12">
+        <v>0.96840000000000004</v>
+      </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
@@ -689,6 +724,21 @@
     <row r="13" spans="2:7">
       <c r="B13" t="s">
         <v>23</v>
+      </c>
+      <c r="C13">
+        <v>0.97560000000000002</v>
+      </c>
+      <c r="D13">
+        <v>1.07716E-3</v>
+      </c>
+      <c r="E13">
+        <v>0.96870000000000001</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="10440" windowWidth="13180" windowHeight="12180" tabRatio="500"/>
+    <workbookView xWindow="16740" yWindow="10300" windowWidth="13180" windowHeight="12180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,9 @@
   <si>
     <t>001, 002, 101, 102,</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>319-5.csv.gz</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -739,6 +742,11 @@
       </c>
       <c r="G13" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="10300" windowWidth="13180" windowHeight="12180" tabRatio="500"/>
+    <workbookView xWindow="16620" yWindow="7840" windowWidth="13180" windowHeight="11600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -125,7 +125,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>319-5.csv.gz</t>
+    <t>321-1.csv.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001, 002, 101, 102,(sinbgle model)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -190,7 +195,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,6 +209,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,8 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -229,6 +237,7 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -560,7 +569,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -747,6 +756,12 @@
     <row r="14" spans="2:7">
       <c r="B14" t="s">
         <v>26</v>
+      </c>
+      <c r="E14">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16620" yWindow="7840" windowWidth="13180" windowHeight="11600" tabRatio="500"/>
+    <workbookView xWindow="19660" yWindow="9800" windowWidth="13740" windowHeight="14120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +131,26 @@
   </si>
   <si>
     <t>001, 002, 101, 102,(sinbgle model)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>328-1.csv.gz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976219, </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>001, 002, 003, 004, 101, 102,(sinbgle model)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nround</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frac</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -195,7 +216,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -209,6 +230,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,9 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="22">
     <cellStyle name="ハイパーリンク" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -238,6 +265,8 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="21" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -566,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -762,6 +791,17 @@
       </c>
       <c r="F14" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -786,4 +826,49 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5">
+        <v>1215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="9800" windowWidth="13740" windowHeight="14120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16860" yWindow="9820" windowWidth="13740" windowHeight="14120" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -830,15 +830,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:6">
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -846,7 +846,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>0.1</v>
       </c>
@@ -854,12 +854,48 @@
         <v>714</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>0.15</v>
       </c>
       <c r="C5">
         <v>1215</v>
+      </c>
+      <c r="E5">
+        <f>B5-B4</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F5">
+        <f>C5-C4</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>0.6</v>
+      </c>
+      <c r="C6">
+        <v>5700</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7">
+        <v>0.9</v>
+      </c>
+      <c r="C7">
+        <v>8700</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="9820" windowWidth="13740" windowHeight="14120" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="16860" yWindow="9820" windowWidth="13740" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>filename</t>
     <phoneticPr fontId="1"/>
@@ -135,10 +135,6 @@
   </si>
   <si>
     <t>328-1.csv.gz</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976219, </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -597,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -778,9 +774,6 @@
       <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
@@ -797,11 +790,14 @@
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15">
+        <v>0.97</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>30</v>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -840,10 +836,10 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6">

--- a/submission.xlsx
+++ b/submission.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27322"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazuki.onodera/TalkingData-AdTracking-Fraud/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{10D54DF4-DEFE-A44B-BA6C-2B07B7B9B9DD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="9820" windowWidth="13740" windowHeight="14120" tabRatio="500"/>
+    <workbookView xWindow="16860" yWindow="9740" windowWidth="17380" windowHeight="14200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -153,8 +159,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +272,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -590,20 +604,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -825,14 +839,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
